--- a/biology/Médecine/La_Lutte_éternelle/La_Lutte_éternelle.xlsx
+++ b/biology/Médecine/La_Lutte_éternelle/La_Lutte_éternelle.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>La_Lutte_%C3%A9ternelle</t>
+          <t>La_Lutte_éternelle</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La Lutte éternelle est un court métrage documentaire français réalisé par Victor Vicas, sorti en 1948.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>La_Lutte_%C3%A9ternelle</t>
+          <t>La_Lutte_éternelle</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce documentaire présente la nature des épidémies dans le monde entier, explique les foyers endémiques dans les pays autres que celui dans lequel l'épidémie se produit et montre le traité signé pour la collaboration internationale d'instaurer la quarantaine.
 </t>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>La_Lutte_%C3%A9ternelle</t>
+          <t>La_Lutte_éternelle</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,7 +556,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Titre : La Lutte éternelle
 Société de production : Le Monde en Images
